--- a/Conflicts in Brasil Data Analysis/Dados/Resultados/ter-serie.xlsx
+++ b/Conflicts in Brasil Data Analysis/Dados/Resultados/ter-serie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L238"/>
+  <dimension ref="A1:L240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,47 +436,69 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Município</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="n">
-        <v>2011</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>2012</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2013</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>2014</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>2015</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>2016</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>2017</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>2018</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>2019</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>2020</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>2021</v>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>CONF2011</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>CONF2012</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>CONF2013</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>CONF2014</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>CONF2015</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>CONF2016</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CONF2017</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>CONF2018</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>CONF2019</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>CONF2020</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>CONF2021</t>
+        </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Abelardo Luz</t>
+          <t>Abelardo Luz - SC</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -516,7 +538,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Acrelândia</t>
+          <t>Acrelândia - AC</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -556,7 +578,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alenquer</t>
+          <t>Alenquer - PA</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -596,7 +618,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Almeirim</t>
+          <t>Almeirim - PA</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -636,7 +658,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpestre</t>
+          <t>Alpestre - RS</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -676,7 +698,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Alta Floresta D'Oeste</t>
+          <t>Alta Floresta D'Oeste - RO</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -716,7 +738,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Alto Alegre</t>
+          <t>Alto Alegre - RR</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -756,7 +778,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Alto Alegre dos Parecis</t>
+          <t>Alto Alegre dos Parecis - RO</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -796,7 +818,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Alto Paraíso</t>
+          <t>Alto Paraíso - RO</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -836,7 +858,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Alvorada D'Oeste</t>
+          <t>Alvorada D'Oeste - RO</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -876,7 +898,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Amajari</t>
+          <t>Amajari - RR</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -916,7 +938,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Amambai</t>
+          <t>Amambai - MS</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -956,7 +978,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Amapá</t>
+          <t>Amapá - AP</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -996,7 +1018,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Amaturá</t>
+          <t>Amaturá - AM</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1036,7 +1058,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Anastácio</t>
+          <t>Anastácio - MS</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1076,7 +1098,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Antônio João</t>
+          <t>Antônio João - MS</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1116,7 +1138,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Aquidauana</t>
+          <t>Aquidauana - MS</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1156,7 +1178,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Aral Moreira</t>
+          <t>Aral Moreira - MS</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1196,7 +1218,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Ariquemes</t>
+          <t>Ariquemes - RO</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1236,7 +1258,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Arvoredo</t>
+          <t>Arvoredo - SC</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1276,7 +1298,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Assis Brasil</t>
+          <t>Assis Brasil - AC</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1316,7 +1338,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Atalaia do Norte</t>
+          <t>Atalaia do Norte - AM</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1356,7 +1378,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Bagé</t>
+          <t>Bagé - RS</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1396,7 +1418,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Barcelos</t>
+          <t>Barcelos - AM</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1436,7 +1458,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Barra do Bugres</t>
+          <t>Barra do Bugres - MT</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1476,7 +1498,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Barão de Melgaço</t>
+          <t>Barão de Melgaço - MT</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1516,7 +1538,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Bela Vista</t>
+          <t>Bela Vista - MS</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1556,7 +1578,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Benjamin Constant</t>
+          <t>Benjamin Constant - AM</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1596,7 +1618,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Benjamin Constant do Sul</t>
+          <t>Benjamin Constant do Sul - RS</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1636,7 +1658,7 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Boa Vista</t>
+          <t>Boa Vista - RR</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1676,87 +1698,87 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Boca do Acre</t>
+          <t>Boca do Acre - AC</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K32" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Bonfim</t>
+          <t>Boca do Acre - AM</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G33" t="n">
         <v>2</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J33" t="n">
         <v>4</v>
       </c>
       <c r="K33" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Bonito</t>
+          <t>Bonfim - RR</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1775,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1784,10 +1806,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -1796,14 +1818,14 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Brasiléia</t>
+          <t>Bonito - MS</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -1827,16 +1849,16 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Bujari</t>
+          <t>Brasiléia - AC</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1852,22 +1874,22 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>4</v>
@@ -1876,78 +1898,78 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Buritis</t>
+          <t>Bujari - AC</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" t="n">
+        <v>3</v>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+      <c r="I37" t="n">
+        <v>3</v>
+      </c>
+      <c r="J37" t="n">
+        <v>2</v>
+      </c>
+      <c r="K37" t="n">
+        <v>2</v>
+      </c>
+      <c r="L37" t="n">
         <v>4</v>
-      </c>
-      <c r="G37" t="n">
-        <v>3</v>
-      </c>
-      <c r="H37" t="n">
-        <v>5</v>
-      </c>
-      <c r="I37" t="n">
-        <v>4</v>
-      </c>
-      <c r="J37" t="n">
-        <v>3</v>
-      </c>
-      <c r="K37" t="n">
-        <v>3</v>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Caarapó</t>
+          <t>Buritis - RO</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E38" t="n">
         <v>6</v>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G38" t="n">
         <v>3</v>
       </c>
       <c r="H38" t="n">
+        <v>5</v>
+      </c>
+      <c r="I38" t="n">
         <v>4</v>
       </c>
-      <c r="I38" t="n">
-        <v>7</v>
-      </c>
       <c r="J38" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K38" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L38" t="n">
         <v>1</v>
@@ -1956,60 +1978,60 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Cabixi</t>
+          <t>Caarapó - MS</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Cacaulândia</t>
+          <t>Cabixi - RO</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -2018,232 +2040,232 @@
         <v>2</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Cachoeira do Sul</t>
+          <t>Cacaulândia - RO</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Calçoene</t>
+          <t>Cachoeira do Sul - RS</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Campo Grande</t>
+          <t>Calçoene - AP</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J43" t="n">
         <v>2</v>
       </c>
       <c r="K43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Campo Novo de Rondônia</t>
+          <t>Campo Grande - MS</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K44" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L44" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Campo Novo do Parecis</t>
+          <t>Campo Novo de Rondônia - RO</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Campos de Júlio</t>
+          <t>Campo Novo do Parecis - MT</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -2261,35 +2283,35 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Candiota</t>
+          <t>Campos de Júlio - MT</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
@@ -2304,106 +2326,106 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Cantá</t>
+          <t>Candiota - RS</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Canutama</t>
+          <t>Cantá - RR</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Capanema</t>
+          <t>Canutama - AM</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -2412,31 +2434,31 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K50" t="n">
         <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Capitão Leônidas Marques</t>
+          <t>Capanema - PR</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -2476,47 +2498,47 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Capixaba</t>
+          <t>Capitão Leônidas Marques - PR</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Capão do Leão</t>
+          <t>Capixaba - AC</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -2526,130 +2548,130 @@
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H53" t="n">
         <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Caracaraí</t>
+          <t>Capão do Leão - RS</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
         <v>1</v>
       </c>
       <c r="G54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Carazinho</t>
+          <t>Caracaraí - RR</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K55" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Caroebe</t>
+          <t>Carazinho - RS</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
@@ -2667,66 +2689,66 @@
         <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Cascavel</t>
+          <t>Caroebe - RR</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K57" t="n">
         <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Catuípe</t>
+          <t>Cascavel - PR</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
         <v>1</v>
@@ -2735,16 +2757,16 @@
         <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K58" t="n">
         <v>0</v>
@@ -2756,29 +2778,29 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Caçapava do Sul</t>
+          <t>Catuípe - RS</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -2796,35 +2818,35 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Cerejeiras</t>
+          <t>Caçapava do Sul - RS</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60" t="n">
         <v>0</v>
@@ -2836,11 +2858,11 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Chapecó</t>
+          <t>Cerejeiras - RO</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -2849,25 +2871,25 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
@@ -2876,7 +2898,7 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Chopinzinho</t>
+          <t>Chapecó - SC</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -2901,149 +2923,149 @@
         <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Chupinguaia</t>
+          <t>Chopinzinho - PR</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="L63" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Clevelândia</t>
+          <t>Chupinguaia - RO</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F64" t="n">
         <v>1</v>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Colniza</t>
+          <t>Clevelândia - PR</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Comodoro</t>
+          <t>Colniza - MT</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D66" t="n">
         <v>1</v>
@@ -3052,13 +3074,13 @@
         <v>3</v>
       </c>
       <c r="F66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -3067,7 +3089,7 @@
         <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L66" t="n">
         <v>1</v>
@@ -3076,158 +3098,158 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Conquista D'Oeste</t>
+          <t>Comodoro - MT</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67" t="n">
         <v>4</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Constantina</t>
+          <t>Conquista D'Oeste - MT</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J68" t="n">
         <v>1</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Corbélia</t>
+          <t>Constantina - RS</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69" t="n">
         <v>0</v>
       </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Coronel Sapucaia</t>
+          <t>Corbélia - PR</t>
         </is>
       </c>
       <c r="B70" t="n">
         <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
@@ -3236,47 +3258,47 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Coronel Vivida</t>
+          <t>Coronel Sapucaia - MS</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H71" t="n">
         <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>Corumbiara</t>
+          <t>Coronel Vivida - PR</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -3289,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -3298,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -3310,173 +3332,173 @@
         <v>1</v>
       </c>
       <c r="L72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Corumbá</t>
+          <t>Corumbiara - RO</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L73" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>Costa Marques</t>
+          <t>Corumbá - MS</t>
         </is>
       </c>
       <c r="B74" t="n">
+        <v>1</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1</v>
+      </c>
+      <c r="D74" t="n">
+        <v>3</v>
+      </c>
+      <c r="E74" t="n">
         <v>5</v>
       </c>
-      <c r="C74" t="n">
-        <v>0</v>
-      </c>
-      <c r="D74" t="n">
-        <v>2</v>
-      </c>
-      <c r="E74" t="n">
-        <v>3</v>
-      </c>
       <c r="F74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H74" t="n">
         <v>3</v>
       </c>
       <c r="I74" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K74" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L74" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>Cruzeiro do Sul</t>
+          <t>Costa Marques - RO</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F75" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G75" t="n">
         <v>4</v>
       </c>
       <c r="H75" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I75" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K75" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Cujubim</t>
+          <t>Cruzeiro do Sul - AC</t>
         </is>
       </c>
       <c r="B76" t="n">
         <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K76" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L76" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Cunha Porã</t>
+          <t>Cujubim - RO</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -3504,32 +3526,32 @@
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Cáceres</t>
+          <t>Cunha Porã - SC</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
@@ -3538,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -3547,7 +3569,7 @@
         <v>1</v>
       </c>
       <c r="K78" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L78" t="n">
         <v>0</v>
@@ -3556,20 +3578,20 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Diamante D'Oeste</t>
+          <t>Cáceres - MT</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79" t="n">
         <v>0</v>
@@ -3578,41 +3600,41 @@
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K79" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>Dois Irmãos do Buriti</t>
+          <t>Diamante D'Oeste - PR</t>
         </is>
       </c>
       <c r="B80" t="n">
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D80" t="n">
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
@@ -3621,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
         <v>2</v>
@@ -3630,23 +3652,23 @@
         <v>1</v>
       </c>
       <c r="L80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>Douradina</t>
+          <t>Dois Irmãos do Buriti - MS</t>
         </is>
       </c>
       <c r="B81" t="n">
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E81" t="n">
         <v>1</v>
@@ -3655,108 +3677,108 @@
         <v>2</v>
       </c>
       <c r="G81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K81" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>Dourados</t>
+          <t>Douradina - MS</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E82" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G82" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H82" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I82" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K82" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="L82" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>Eirunepé</t>
+          <t>Dourados - MS</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J83" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="K83" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="L83" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>Eldorado</t>
+          <t>Eirunepé - AM</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -3775,19 +3797,19 @@
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
         <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L84" t="n">
         <v>0</v>
@@ -3796,7 +3818,7 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>Encruzilhada do Sul</t>
+          <t>Eldorado - MS</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -3812,10 +3834,10 @@
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3827,7 +3849,7 @@
         <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L85" t="n">
         <v>0</v>
@@ -3836,47 +3858,47 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>Engenho Velho</t>
+          <t>Encruzilhada do Sul - RS</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E86" t="n">
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K86" t="n">
         <v>0</v>
       </c>
       <c r="L86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>Entre Rios</t>
+          <t>Engenho Velho - RS</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -3895,7 +3917,7 @@
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
         <v>1</v>
@@ -3904,29 +3926,29 @@
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>Entre Rios do Oeste</t>
+          <t>Entre Rios - SC</t>
         </is>
       </c>
       <c r="B88" t="n">
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E88" t="n">
         <v>0</v>
@@ -3935,19 +3957,19 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L88" t="n">
         <v>0</v>
@@ -3956,7 +3978,7 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>Epitaciolândia</t>
+          <t>Entre Rios do Oeste - PR</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -3984,19 +4006,19 @@
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K89" t="n">
         <v>0</v>
       </c>
       <c r="L89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>Erval Seco</t>
+          <t>Epitaciolândia - AC</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -4021,13 +4043,13 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
         <v>0</v>
       </c>
       <c r="K90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L90" t="n">
         <v>1</v>
@@ -4036,7 +4058,7 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>Espigão Alto do Iguaçu</t>
+          <t>Erval Seco - RS</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -4052,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
@@ -4061,22 +4083,22 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K91" t="n">
         <v>1</v>
       </c>
       <c r="L91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>Faro</t>
+          <t>Espigão Alto do Iguaçu - PR</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -4092,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
@@ -4104,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K92" t="n">
         <v>1</v>
@@ -4116,7 +4138,7 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>Faxinal dos Guedes</t>
+          <t>Faro - PA</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -4126,13 +4148,13 @@
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G93" t="n">
         <v>0</v>
@@ -4147,7 +4169,7 @@
         <v>0</v>
       </c>
       <c r="K93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L93" t="n">
         <v>0</v>
@@ -4156,23 +4178,23 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>Faxinalzinho</t>
+          <t>Faxinal dos Guedes - SC</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
@@ -4184,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K94" t="n">
         <v>0</v>
@@ -4196,11 +4218,11 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>Feijó</t>
+          <t>Faxinalzinho - RS</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -4218,16 +4240,16 @@
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L95" t="n">
         <v>0</v>
@@ -4236,87 +4258,87 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>Ferreira Gomes</t>
+          <t>Feijó - AC</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D96" t="n">
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J96" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>Flor da Serra do Sul</t>
+          <t>Ferreira Gomes - AP</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J97" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K97" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>Fonte Boa</t>
+          <t>Flor da Serra do Sul - PR</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -4338,13 +4360,13 @@
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K98" t="n">
         <v>0</v>
@@ -4356,7 +4378,7 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>Glória D'Oeste</t>
+          <t>Fonte Boa - AM</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -4387,167 +4409,167 @@
         <v>0</v>
       </c>
       <c r="K99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>Governador Jorge Teixeira</t>
+          <t>Glória D'Oeste - MT</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F100" t="n">
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J100" t="n">
         <v>0</v>
       </c>
       <c r="K100" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L100" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>Guajará-Mirim</t>
+          <t>Governador Jorge Teixeira - RO</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E101" t="n">
+        <v>2</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>2</v>
+      </c>
+      <c r="H101" t="n">
+        <v>3</v>
+      </c>
+      <c r="I101" t="n">
+        <v>3</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>7</v>
+      </c>
+      <c r="L101" t="n">
         <v>5</v>
-      </c>
-      <c r="F101" t="n">
-        <v>3</v>
-      </c>
-      <c r="G101" t="n">
-        <v>10</v>
-      </c>
-      <c r="H101" t="n">
-        <v>8</v>
-      </c>
-      <c r="I101" t="n">
-        <v>10</v>
-      </c>
-      <c r="J101" t="n">
-        <v>4</v>
-      </c>
-      <c r="K101" t="n">
-        <v>23</v>
-      </c>
-      <c r="L101" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>Guatambú</t>
+          <t>Guajará-Mirim - RO</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E102" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I102" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J102" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K102" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="L102" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>Guaíra</t>
+          <t>Guatambú - SC</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E103" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J103" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K103" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L103" t="n">
         <v>0</v>
@@ -4556,38 +4578,38 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>Guia Lopes da Laguna</t>
+          <t>Guaíra - PR</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E104" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J104" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K104" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L104" t="n">
         <v>0</v>
@@ -4596,11 +4618,11 @@
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>Honório Serpa</t>
+          <t>Guia Lopes da Laguna - MS</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -4618,16 +4640,16 @@
         <v>0</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="n">
         <v>0</v>
       </c>
       <c r="K105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L105" t="n">
         <v>0</v>
@@ -4636,7 +4658,7 @@
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>Hulha Negra</t>
+          <t>Honório Serpa - PR</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -4646,7 +4668,7 @@
         <v>0</v>
       </c>
       <c r="D106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
@@ -4661,7 +4683,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="n">
         <v>0</v>
@@ -4676,38 +4698,38 @@
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>Iguatemi</t>
+          <t>Hulha Negra - RS</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H107" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L107" t="n">
         <v>0</v>
@@ -4716,38 +4738,38 @@
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>Ipixuna</t>
+          <t>Iguatemi - MS</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L108" t="n">
         <v>0</v>
@@ -4756,17 +4778,17 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>Ipuaçu</t>
+          <t>Ipixuna - AM</t>
         </is>
       </c>
       <c r="B109" t="n">
         <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E109" t="n">
         <v>0</v>
@@ -4775,19 +4797,19 @@
         <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="n">
         <v>0</v>
       </c>
       <c r="K109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L109" t="n">
         <v>0</v>
@@ -4796,17 +4818,17 @@
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>Iracema</t>
+          <t>Ipuaçu - SC</t>
         </is>
       </c>
       <c r="B110" t="n">
         <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E110" t="n">
         <v>0</v>
@@ -4815,10 +4837,10 @@
         <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -4827,7 +4849,7 @@
         <v>0</v>
       </c>
       <c r="K110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L110" t="n">
         <v>0</v>
@@ -4836,14 +4858,14 @@
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>Itaipulândia</t>
+          <t>Iracema - RR</t>
         </is>
       </c>
       <c r="B111" t="n">
         <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D111" t="n">
         <v>0</v>
@@ -4861,22 +4883,22 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="n">
         <v>0</v>
       </c>
       <c r="K111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>Itaporã</t>
+          <t>Itaipulândia - PR</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -4889,16 +4911,16 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H112" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>1</v>
@@ -4910,13 +4932,13 @@
         <v>1</v>
       </c>
       <c r="L112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>Itaquiraí</t>
+          <t>Itaporã - MS</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -4929,16 +4951,16 @@
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I113" t="n">
         <v>1</v>
@@ -4947,7 +4969,7 @@
         <v>0</v>
       </c>
       <c r="K113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L113" t="n">
         <v>0</v>
@@ -4956,38 +4978,38 @@
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>Japorã</t>
+          <t>Itaquiraí - MS</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L114" t="n">
         <v>0</v>
@@ -4996,38 +5018,38 @@
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>Japurá</t>
+          <t>Japorã - MS</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H115" t="n">
         <v>3</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L115" t="n">
         <v>0</v>
@@ -5036,38 +5058,38 @@
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>Jardim</t>
+          <t>Japurá - AM</t>
         </is>
       </c>
       <c r="B116" t="n">
         <v>0</v>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D116" t="n">
         <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="n">
         <v>0</v>
       </c>
       <c r="K116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L116" t="n">
         <v>0</v>
@@ -5076,94 +5098,94 @@
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>Jaru</t>
+          <t>Jardim - MS</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
       </c>
       <c r="D117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J117" t="n">
         <v>0</v>
       </c>
       <c r="K117" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>Jateí</t>
+          <t>Jaru - RO</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F118" t="n">
         <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J118" t="n">
         <v>0</v>
       </c>
       <c r="K118" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>Jordão</t>
+          <t>Jateí - MS</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D119" t="n">
         <v>0</v>
@@ -5178,25 +5200,25 @@
         <v>0</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>Jutaí</t>
+          <t>Jordão - AC</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -5206,99 +5228,99 @@
         <v>0</v>
       </c>
       <c r="D120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H120" t="n">
         <v>1</v>
       </c>
       <c r="I120" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K120" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>Juti</t>
+          <t>Jutaí - AM</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C121" t="n">
+        <v>0</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1</v>
+      </c>
+      <c r="E121" t="n">
+        <v>2</v>
+      </c>
+      <c r="F121" t="n">
+        <v>2</v>
+      </c>
+      <c r="G121" t="n">
+        <v>1</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>5</v>
+      </c>
+      <c r="J121" t="n">
+        <v>3</v>
+      </c>
+      <c r="K121" t="n">
         <v>4</v>
       </c>
-      <c r="D121" t="n">
-        <v>1</v>
-      </c>
-      <c r="E121" t="n">
-        <v>2</v>
-      </c>
-      <c r="F121" t="n">
-        <v>4</v>
-      </c>
-      <c r="G121" t="n">
-        <v>2</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
-      <c r="K121" t="n">
-        <v>2</v>
-      </c>
       <c r="L121" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>Juína</t>
+          <t>Juti - MS</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -5307,7 +5329,7 @@
         <v>0</v>
       </c>
       <c r="K122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L122" t="n">
         <v>0</v>
@@ -5316,7 +5338,7 @@
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>Ladário</t>
+          <t>Juína - RO</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -5335,10 +5357,10 @@
         <v>0</v>
       </c>
       <c r="G123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -5347,7 +5369,7 @@
         <v>0</v>
       </c>
       <c r="K123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L123" t="n">
         <v>0</v>
@@ -5356,7 +5378,7 @@
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>Laguna Carapã</t>
+          <t>Ladário - MS</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -5378,7 +5400,7 @@
         <v>1</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -5387,16 +5409,16 @@
         <v>0</v>
       </c>
       <c r="K124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>Laranjal</t>
+          <t>Laguna Carapã - MS</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -5415,28 +5437,28 @@
         <v>0</v>
       </c>
       <c r="G125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L125" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>Laranjal do Jari</t>
+          <t>Laranjal - PR</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -5446,28 +5468,28 @@
         <v>0</v>
       </c>
       <c r="D126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E126" t="n">
         <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L126" t="n">
         <v>0</v>
@@ -5476,7 +5498,7 @@
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>Laranjeiras do Sul</t>
+          <t>Laranjal do Jari - AP</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -5486,28 +5508,28 @@
         <v>0</v>
       </c>
       <c r="D127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E127" t="n">
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I127" t="n">
         <v>1</v>
       </c>
       <c r="J127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L127" t="n">
         <v>0</v>
@@ -5516,11 +5538,11 @@
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>Lindoeste</t>
+          <t>Laranjeiras do Sul - PR</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -5541,10 +5563,10 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K128" t="n">
         <v>0</v>
@@ -5556,118 +5578,118 @@
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>Lábrea</t>
+          <t>Lindoeste - PR</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
       </c>
       <c r="D129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129" t="n">
         <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K129" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L129" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>Macapá</t>
+          <t>Lábrea - AM</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G130" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J130" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K130" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L130" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>Manaus</t>
+          <t>Macapá - AP</t>
         </is>
       </c>
       <c r="B131" t="n">
         <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F131" t="n">
         <v>1</v>
       </c>
       <c r="G131" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L131" t="n">
         <v>0</v>
@@ -5676,103 +5698,103 @@
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>Mangueirinha</t>
+          <t>Manaus - AM</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H132" t="n">
         <v>2</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>Manoel Urbano</t>
+          <t>Mangueirinha - PR</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C133" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D133" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E133" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K133" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L133" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>Maracaju</t>
+          <t>Manoel Urbano - AC</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D134" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E134" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F134" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G134" t="n">
         <v>0</v>
@@ -5781,22 +5803,22 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K134" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L134" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>Marechal Cândido Rondon</t>
+          <t>Maracaju - MS</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -5812,7 +5834,7 @@
         <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G135" t="n">
         <v>0</v>
@@ -5821,13 +5843,13 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L135" t="n">
         <v>0</v>
@@ -5836,87 +5858,87 @@
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>Marechal Thaumaturgo</t>
+          <t>Marechal Cândido Rondon - PR</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E136" t="n">
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="n">
         <v>1</v>
       </c>
       <c r="K136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>Mariluz</t>
+          <t>Marechal Thaumaturgo - AC</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
       <c r="J137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>Miranda</t>
+          <t>Mariluz - PR</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -5929,65 +5951,65 @@
         <v>0</v>
       </c>
       <c r="E138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G138" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>Mirante da Serra</t>
+          <t>Miranda - MS</t>
         </is>
       </c>
       <c r="B139" t="n">
+        <v>0</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0</v>
+      </c>
+      <c r="F139" t="n">
         <v>5</v>
       </c>
-      <c r="C139" t="n">
-        <v>0</v>
-      </c>
-      <c r="D139" t="n">
-        <v>1</v>
-      </c>
-      <c r="E139" t="n">
-        <v>2</v>
-      </c>
-      <c r="F139" t="n">
-        <v>0</v>
-      </c>
       <c r="G139" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I139" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K139" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L139" t="n">
         <v>2</v>
@@ -5996,7 +6018,7 @@
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>Monte Negro</t>
+          <t>Mirante da Serra - RO</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -6036,91 +6058,91 @@
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>Mucajaí</t>
+          <t>Monte Negro - RO</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C141" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D141" t="n">
+        <v>1</v>
+      </c>
+      <c r="E141" t="n">
+        <v>2</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0</v>
+      </c>
+      <c r="G141" t="n">
+        <v>2</v>
+      </c>
+      <c r="H141" t="n">
+        <v>3</v>
+      </c>
+      <c r="I141" t="n">
+        <v>3</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="n">
         <v>7</v>
       </c>
-      <c r="E141" t="n">
-        <v>4</v>
-      </c>
-      <c r="F141" t="n">
-        <v>1</v>
-      </c>
-      <c r="G141" t="n">
-        <v>1</v>
-      </c>
-      <c r="H141" t="n">
-        <v>2</v>
-      </c>
-      <c r="I141" t="n">
-        <v>4</v>
-      </c>
-      <c r="J141" t="n">
-        <v>3</v>
-      </c>
-      <c r="K141" t="n">
-        <v>9</v>
-      </c>
       <c r="L141" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>Mundo Novo</t>
+          <t>Mucajaí - RR</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D142" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E142" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J142" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K142" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L142" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>Mâncio Lima</t>
+          <t>Mundo Novo - MS</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -6138,29 +6160,29 @@
         <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K143" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L143" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>Naviraí</t>
+          <t>Mâncio Lima - AC</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -6172,31 +6194,31 @@
         <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K144" t="n">
         <v>3</v>
       </c>
       <c r="L144" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>Nioaque</t>
+          <t>Naviraí - MS</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -6212,22 +6234,22 @@
         <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H145" t="n">
         <v>2</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K145" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L145" t="n">
         <v>0</v>
@@ -6236,7 +6258,7 @@
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>Nonoai</t>
+          <t>Nioaque - MS</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -6246,7 +6268,7 @@
         <v>0</v>
       </c>
       <c r="D146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E146" t="n">
         <v>0</v>
@@ -6258,29 +6280,29 @@
         <v>0</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
       <c r="J146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>Normandia</t>
+          <t>Nonoai - RS</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -6289,50 +6311,50 @@
         <v>1</v>
       </c>
       <c r="E147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K147" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L147" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>Nossa Senhora do Livramento</t>
+          <t>Normandia - RR</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D148" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E148" t="n">
         <v>2</v>
       </c>
       <c r="F148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6341,69 +6363,69 @@
         <v>2</v>
       </c>
       <c r="I148" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K148" t="n">
         <v>4</v>
       </c>
       <c r="L148" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>Nova Brasilândia D'Oeste</t>
+          <t>Nossa Senhora do Livramento - MT</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D149" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K149" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>Nova Lacerda</t>
+          <t>Nova Brasilândia D'Oeste - RO</t>
         </is>
       </c>
       <c r="B150" t="n">
         <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D150" t="n">
         <v>0</v>
@@ -6418,152 +6440,152 @@
         <v>1</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K150" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L150" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>Nova Laranjeiras</t>
+          <t>Nova Lacerda - MT</t>
         </is>
       </c>
       <c r="B151" t="n">
         <v>0</v>
       </c>
       <c r="C151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D151" t="n">
         <v>0</v>
       </c>
       <c r="E151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K151" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L151" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>Nova Mamoré</t>
+          <t>Nova Laranjeiras - PR</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
       </c>
       <c r="D152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G152" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H152" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J152" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K152" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="L152" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>Nova Olinda do Norte</t>
+          <t>Nova Mamoré - RO</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
       </c>
       <c r="D153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E153" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F153" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G153" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I153" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J153" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K153" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="L153" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>Nova Prata do Iguaçu</t>
+          <t>Nova Olinda do Norte - AM</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D154" t="n">
         <v>0</v>
@@ -6578,10 +6600,10 @@
         <v>0</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154" t="n">
         <v>0</v>
@@ -6596,17 +6618,17 @@
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>Novo Horizonte do Sul</t>
+          <t>Nova Prata do Iguaçu - PR</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E155" t="n">
         <v>0</v>
@@ -6627,7 +6649,7 @@
         <v>0</v>
       </c>
       <c r="K155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L155" t="n">
         <v>0</v>
@@ -6636,87 +6658,87 @@
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>Novo Mundo</t>
+          <t>Novo Horizonte do Sul - MS</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E156" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G156" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K156" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>Novo Xingu</t>
+          <t>Novo Mundo - MT</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C157" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D157" t="n">
         <v>0</v>
       </c>
       <c r="E157" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F157" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G157" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J157" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K157" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L157" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>Oiapoque</t>
+          <t>Novo Xingu - RS</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -6732,62 +6754,62 @@
         <v>0</v>
       </c>
       <c r="F158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G158" t="n">
         <v>0</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J158" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>Oriximiná</t>
+          <t>Oiapoque - AP</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H159" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J159" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K159" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L159" t="n">
         <v>1</v>
@@ -6796,14 +6818,14 @@
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>Pacaraima</t>
+          <t>Oriximiná - PA</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D160" t="n">
         <v>1</v>
@@ -6812,81 +6834,81 @@
         <v>2</v>
       </c>
       <c r="F160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G160" t="n">
+        <v>2</v>
+      </c>
+      <c r="H160" t="n">
         <v>6</v>
       </c>
-      <c r="H160" t="n">
-        <v>3</v>
-      </c>
       <c r="I160" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K160" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L160" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>Paial</t>
+          <t>Pacaraima - RR</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
       </c>
       <c r="D161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G161" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K161" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L161" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>Palmas</t>
+          <t>Paial - SC</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
       </c>
       <c r="D162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E162" t="n">
         <v>0</v>
@@ -6904,10 +6926,10 @@
         <v>0</v>
       </c>
       <c r="J162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L162" t="n">
         <v>0</v>
@@ -6916,14 +6938,14 @@
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>Paranhos</t>
+          <t>Palmas - PR</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C163" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D163" t="n">
         <v>1</v>
@@ -6932,22 +6954,22 @@
         <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K163" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L163" t="n">
         <v>0</v>
@@ -6956,38 +6978,38 @@
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>Parecis</t>
+          <t>Paranhos - MS</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C164" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J164" t="n">
         <v>3</v>
       </c>
       <c r="K164" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L164" t="n">
         <v>0</v>
@@ -6996,32 +7018,32 @@
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>Pedra Branca do Amapari</t>
+          <t>Parecis - RO</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C165" t="n">
         <v>1</v>
       </c>
       <c r="D165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F165" t="n">
         <v>1</v>
       </c>
       <c r="G165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J165" t="n">
         <v>3</v>
@@ -7030,57 +7052,57 @@
         <v>1</v>
       </c>
       <c r="L165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>Pelotas</t>
+          <t>Pedra Branca do Amapari - AP</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E166" t="n">
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
       <c r="J166" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>Perobal</t>
+          <t>Pelotas - RS</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -7098,7 +7120,7 @@
         <v>0</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -7116,7 +7138,7 @@
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>Pimenta Bueno</t>
+          <t>Perobal - PR</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -7126,65 +7148,65 @@
         <v>0</v>
       </c>
       <c r="D168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>Pimenteiras do Oeste</t>
+          <t>Pimenta Bueno - RO</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
       </c>
       <c r="D169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J169" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K169" t="n">
         <v>2</v>
@@ -7196,20 +7218,20 @@
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>Planalto</t>
+          <t>Pimenteiras do Oeste - RO</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D170" t="n">
         <v>0</v>
       </c>
       <c r="E170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170" t="n">
         <v>0</v>
@@ -7227,23 +7249,23 @@
         <v>0</v>
       </c>
       <c r="K170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>Plácido de Castro</t>
+          <t>Planalto - PR</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D171" t="n">
         <v>0</v>
@@ -7255,7 +7277,7 @@
         <v>0</v>
       </c>
       <c r="G171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -7267,35 +7289,35 @@
         <v>0</v>
       </c>
       <c r="K171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L171" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>Poconé</t>
+          <t>Planalto - RS</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
       </c>
       <c r="D172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -7304,75 +7326,75 @@
         <v>0</v>
       </c>
       <c r="J172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K172" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L172" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>Ponta Porã</t>
+          <t>Plácido de Castro - AC</t>
         </is>
       </c>
       <c r="B173" t="n">
+        <v>0</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0</v>
+      </c>
+      <c r="G173" t="n">
+        <v>1</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="n">
+        <v>3</v>
+      </c>
+      <c r="L173" t="n">
         <v>4</v>
-      </c>
-      <c r="C173" t="n">
-        <v>1</v>
-      </c>
-      <c r="D173" t="n">
-        <v>0</v>
-      </c>
-      <c r="E173" t="n">
-        <v>0</v>
-      </c>
-      <c r="F173" t="n">
-        <v>1</v>
-      </c>
-      <c r="G173" t="n">
-        <v>3</v>
-      </c>
-      <c r="H173" t="n">
-        <v>4</v>
-      </c>
-      <c r="I173" t="n">
-        <v>1</v>
-      </c>
-      <c r="J173" t="n">
-        <v>1</v>
-      </c>
-      <c r="K173" t="n">
-        <v>4</v>
-      </c>
-      <c r="L173" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>Pontes e Lacerda</t>
+          <t>Poconé - MT</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
       </c>
       <c r="D174" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7381,62 +7403,62 @@
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J174" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K174" t="n">
+        <v>5</v>
+      </c>
+      <c r="L174" t="n">
         <v>4</v>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>Porto Acre</t>
+          <t>Ponta Porã - MS</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D175" t="n">
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G175" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I175" t="n">
         <v>1</v>
       </c>
       <c r="J175" t="n">
+        <v>1</v>
+      </c>
+      <c r="K175" t="n">
         <v>4</v>
       </c>
-      <c r="K175" t="n">
-        <v>0</v>
-      </c>
       <c r="L175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>Porto Esperidião</t>
+          <t>Pontes e Lacerda - MT</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -7467,7 +7489,7 @@
         <v>0</v>
       </c>
       <c r="K176" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L176" t="n">
         <v>1</v>
@@ -7476,20 +7498,20 @@
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>Porto Estrela</t>
+          <t>Porto Acre - AC</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D177" t="n">
         <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177" t="n">
         <v>0</v>
@@ -7501,13 +7523,13 @@
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J177" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L177" t="n">
         <v>0</v>
@@ -7516,7 +7538,7 @@
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>Porto Grande</t>
+          <t>Porto Esperidião - MT</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -7532,195 +7554,195 @@
         <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J178" t="n">
         <v>0</v>
       </c>
       <c r="K178" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>Porto Murtinho</t>
+          <t>Porto Estrela - MT</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E179" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
       <c r="J179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>Porto Velho</t>
+          <t>Porto Grande - AP</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C180" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D180" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E180" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G180" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H180" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I180" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J180" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="K180" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="L180" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>Porto Walter</t>
+          <t>Porto Murtinho - MS</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E181" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
       <c r="J181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>Pracuúba</t>
+          <t>Porto Velho - RO</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C182" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D182" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E182" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F182" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G182" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I182" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J182" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="K182" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L182" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>Quedas do Iguaçu</t>
+          <t>Porto Walter - AC</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -7729,10 +7751,10 @@
         <v>0</v>
       </c>
       <c r="E183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G183" t="n">
         <v>0</v>
@@ -7744,32 +7766,32 @@
         <v>0</v>
       </c>
       <c r="J183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L183" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>Realeza</t>
+          <t>Pracuúba - AP</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C184" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E184" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F184" t="n">
         <v>0</v>
@@ -7784,7 +7806,7 @@
         <v>0</v>
       </c>
       <c r="J184" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K184" t="n">
         <v>0</v>
@@ -7796,11 +7818,11 @@
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>Redentora</t>
+          <t>Quedas do Iguaçu - PR</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -7812,7 +7834,7 @@
         <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G185" t="n">
         <v>0</v>
@@ -7821,29 +7843,29 @@
         <v>0</v>
       </c>
       <c r="I185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L185" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>Rio Bonito do Iguaçu</t>
+          <t>Realeza - PR</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D186" t="n">
         <v>0</v>
@@ -7870,75 +7892,75 @@
         <v>0</v>
       </c>
       <c r="L186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>Rio Branco</t>
+          <t>Redentora - RS</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C187" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D187" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E187" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G187" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H187" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I187" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="J187" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="K187" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="L187" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>Rio Brilhante</t>
+          <t>Rio Bonito do Iguaçu - PR</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F188" t="n">
         <v>0</v>
       </c>
       <c r="G188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -7947,78 +7969,78 @@
         <v>0</v>
       </c>
       <c r="K188" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>Rodrigues Alves</t>
+          <t>Rio Branco - AC</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D189" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E189" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G189" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I189" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="J189" t="n">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="K189" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="L189" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>Rolim de Moura</t>
+          <t>Rio Brilhante - MS</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F190" t="n">
         <v>0</v>
       </c>
       <c r="G190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -8027,7 +8049,7 @@
         <v>0</v>
       </c>
       <c r="K190" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L190" t="n">
         <v>0</v>
@@ -8036,17 +8058,17 @@
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>Ronda Alta</t>
+          <t>Rodrigues Alves - AC</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E191" t="n">
         <v>0</v>
@@ -8058,16 +8080,16 @@
         <v>0</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J191" t="n">
         <v>1</v>
       </c>
       <c r="K191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L191" t="n">
         <v>1</v>
@@ -8076,14 +8098,14 @@
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>Rorainópolis</t>
+          <t>Rolim de Moura - RO</t>
         </is>
       </c>
       <c r="B192" t="n">
         <v>0</v>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D192" t="n">
         <v>0</v>
@@ -8095,7 +8117,7 @@
         <v>0</v>
       </c>
       <c r="G192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H192" t="n">
         <v>1</v>
@@ -8104,35 +8126,35 @@
         <v>0</v>
       </c>
       <c r="J192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L192" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>Salto do Céu</t>
+          <t>Ronda Alta - RS</t>
         </is>
       </c>
       <c r="B193" t="n">
         <v>0</v>
       </c>
       <c r="C193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E193" t="n">
         <v>0</v>
       </c>
       <c r="F193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G193" t="n">
         <v>0</v>
@@ -8144,26 +8166,26 @@
         <v>0</v>
       </c>
       <c r="J193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K193" t="n">
         <v>0</v>
       </c>
       <c r="L193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>Sant'Ana do Livramento</t>
+          <t>Rorainópolis - RR</t>
         </is>
       </c>
       <c r="B194" t="n">
         <v>0</v>
       </c>
       <c r="C194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D194" t="n">
         <v>0</v>
@@ -8178,44 +8200,44 @@
         <v>0</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
       <c r="J194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K194" t="n">
         <v>0</v>
       </c>
       <c r="L194" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>Santa Helena</t>
+          <t>Salto do Céu - MT</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
       </c>
       <c r="D195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E195" t="n">
         <v>0</v>
       </c>
       <c r="F195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H195" t="n">
         <v>1</v>
@@ -8224,29 +8246,29 @@
         <v>0</v>
       </c>
       <c r="J195" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K195" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>Santa Isabel do Rio Negro</t>
+          <t>Sant'Ana do Livramento - RS</t>
         </is>
       </c>
       <c r="B196" t="n">
         <v>0</v>
       </c>
       <c r="C196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E196" t="n">
         <v>0</v>
@@ -8258,10 +8280,10 @@
         <v>0</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J196" t="n">
         <v>0</v>
@@ -8276,17 +8298,17 @@
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>Santa Maria</t>
+          <t>Santa Helena - PR</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E197" t="n">
         <v>0</v>
@@ -8295,28 +8317,28 @@
         <v>0</v>
       </c>
       <c r="G197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
       <c r="J197" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K197" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>Santa Rosa do Purus</t>
+          <t>Santa Isabel do Rio Negro - AM</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -8326,10 +8348,10 @@
         <v>0</v>
       </c>
       <c r="D198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F198" t="n">
         <v>0</v>
@@ -8338,16 +8360,16 @@
         <v>0</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J198" t="n">
         <v>0</v>
       </c>
       <c r="K198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L198" t="n">
         <v>0</v>
@@ -8356,20 +8378,20 @@
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>Santa Terezinha de Itaipu</t>
+          <t>Santa Maria - RS</t>
         </is>
       </c>
       <c r="B199" t="n">
         <v>0</v>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D199" t="n">
         <v>0</v>
       </c>
       <c r="E199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F199" t="n">
         <v>0</v>
@@ -8384,7 +8406,7 @@
         <v>0</v>
       </c>
       <c r="J199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K199" t="n">
         <v>0</v>
@@ -8396,7 +8418,7 @@
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>Santo Antônio do Içá</t>
+          <t>Santa Rosa do Purus - AC</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -8409,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F200" t="n">
         <v>0</v>
@@ -8418,16 +8440,16 @@
         <v>0</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L200" t="n">
         <v>0</v>
@@ -8436,7 +8458,7 @@
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>Sapezal</t>
+          <t>Santa Terezinha de Itaipu - PR</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -8446,7 +8468,7 @@
         <v>0</v>
       </c>
       <c r="D201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E201" t="n">
         <v>1</v>
@@ -8461,13 +8483,13 @@
         <v>0</v>
       </c>
       <c r="I201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L201" t="n">
         <v>0</v>
@@ -8476,7 +8498,7 @@
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>Sarandi</t>
+          <t>Santo Antônio do Içá - AM</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -8492,19 +8514,19 @@
         <v>0</v>
       </c>
       <c r="F202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G202" t="n">
         <v>0</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K202" t="n">
         <v>0</v>
@@ -8516,7 +8538,7 @@
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>Saudades</t>
+          <t>Sapezal - MT</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -8526,10 +8548,10 @@
         <v>0</v>
       </c>
       <c r="D203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F203" t="n">
         <v>0</v>
@@ -8541,13 +8563,13 @@
         <v>0</v>
       </c>
       <c r="I203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K203" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L203" t="n">
         <v>0</v>
@@ -8556,7 +8578,7 @@
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>Seara</t>
+          <t>Sarandi - RS</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -8572,7 +8594,7 @@
         <v>0</v>
       </c>
       <c r="F204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G204" t="n">
         <v>0</v>
@@ -8584,10 +8606,10 @@
         <v>0</v>
       </c>
       <c r="J204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L204" t="n">
         <v>0</v>
@@ -8596,7 +8618,7 @@
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>Sena Madureira</t>
+          <t>Saudades - SC</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -8609,34 +8631,34 @@
         <v>0</v>
       </c>
       <c r="E205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J205" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K205" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L205" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>Senador Guiomard</t>
+          <t>Seara - SC</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -8646,93 +8668,93 @@
         <v>0</v>
       </c>
       <c r="D206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F206" t="n">
         <v>0</v>
       </c>
       <c r="G206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J206" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K206" t="n">
         <v>1</v>
       </c>
       <c r="L206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>Seringueiras</t>
+          <t>Sena Madureira - AC</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C207" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E207" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F207" t="n">
+        <v>2</v>
+      </c>
+      <c r="G207" t="n">
+        <v>2</v>
+      </c>
+      <c r="H207" t="n">
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
         <v>4</v>
-      </c>
-      <c r="G207" t="n">
-        <v>8</v>
-      </c>
-      <c r="H207" t="n">
-        <v>9</v>
-      </c>
-      <c r="I207" t="n">
-        <v>6</v>
       </c>
       <c r="J207" t="n">
         <v>4</v>
       </c>
       <c r="K207" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="L207" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>Serra do Navio</t>
+          <t>Senador Guiomard - AC</t>
         </is>
       </c>
       <c r="B208" t="n">
         <v>0</v>
       </c>
       <c r="C208" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E208" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8741,109 +8763,109 @@
         <v>1</v>
       </c>
       <c r="I208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K208" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>Sete Quedas</t>
+          <t>Seringueiras - RO</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C209" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E209" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F209" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G209" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I209" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J209" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K209" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="L209" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>Sidrolândia</t>
+          <t>Serra do Navio - AP</t>
         </is>
       </c>
       <c r="B210" t="n">
         <v>0</v>
       </c>
       <c r="C210" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D210" t="n">
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F210" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
       <c r="J210" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K210" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>São Borja</t>
+          <t>Sete Quedas - MS</t>
         </is>
       </c>
       <c r="B211" t="n">
         <v>0</v>
       </c>
       <c r="C211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D211" t="n">
         <v>0</v>
@@ -8861,13 +8883,13 @@
         <v>0</v>
       </c>
       <c r="I211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L211" t="n">
         <v>0</v>
@@ -8876,38 +8898,38 @@
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>São Francisco do Guaporé</t>
+          <t>Sidrolândia - MS</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C212" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E212" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F212" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K212" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L212" t="n">
         <v>1</v>
@@ -8916,17 +8938,17 @@
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>São Gabriel</t>
+          <t>São Borja - RS</t>
         </is>
       </c>
       <c r="B213" t="n">
         <v>0</v>
       </c>
       <c r="C213" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E213" t="n">
         <v>0</v>
@@ -8956,38 +8978,38 @@
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>São Gabriel da Cachoeira</t>
+          <t>São Francisco do Guaporé - RO</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F214" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H214" t="n">
         <v>2</v>
       </c>
       <c r="I214" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J214" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K214" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L214" t="n">
         <v>1</v>
@@ -8996,14 +9018,14 @@
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>São José dos Quatro Marcos</t>
+          <t>São Gabriel - RS</t>
         </is>
       </c>
       <c r="B215" t="n">
         <v>0</v>
       </c>
       <c r="C215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D215" t="n">
         <v>1</v>
@@ -9036,17 +9058,17 @@
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>São João da Baliza</t>
+          <t>São Gabriel da Cachoeira - AM</t>
         </is>
       </c>
       <c r="B216" t="n">
         <v>0</v>
       </c>
       <c r="C216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E216" t="n">
         <v>0</v>
@@ -9058,13 +9080,13 @@
         <v>0</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J216" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K216" t="n">
         <v>3</v>
@@ -9076,7 +9098,7 @@
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>São Lourenço do Sul</t>
+          <t>São José dos Quatro Marcos - MT</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -9086,10 +9108,10 @@
         <v>0</v>
       </c>
       <c r="D217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F217" t="n">
         <v>0</v>
@@ -9116,14 +9138,14 @@
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>São Luiz</t>
+          <t>São João da Baliza - RR</t>
         </is>
       </c>
       <c r="B218" t="n">
         <v>0</v>
       </c>
       <c r="C218" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D218" t="n">
         <v>1</v>
@@ -9150,23 +9172,23 @@
         <v>3</v>
       </c>
       <c r="L218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>São Miguel do Guaporé</t>
+          <t>São Lourenço do Sul - RS</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
       </c>
       <c r="D219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E219" t="n">
         <v>2</v>
@@ -9175,41 +9197,41 @@
         <v>0</v>
       </c>
       <c r="G219" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H219" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I219" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K219" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>São Miguel do Iguaçu</t>
+          <t>São Luiz - RR</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D220" t="n">
         <v>1</v>
       </c>
       <c r="E220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F220" t="n">
         <v>0</v>
@@ -9224,10 +9246,10 @@
         <v>0</v>
       </c>
       <c r="J220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K220" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L220" t="n">
         <v>0</v>
@@ -9236,11 +9258,11 @@
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>São Paulo de Olivença</t>
+          <t>São Miguel do Guaporé - RO</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
@@ -9252,62 +9274,62 @@
         <v>2</v>
       </c>
       <c r="F221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G221" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I221" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J221" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K221" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L221" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>Tabatinga</t>
+          <t>São Miguel do Iguaçu - PR</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E222" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G222" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L222" t="n">
         <v>0</v>
@@ -9316,23 +9338,23 @@
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>Tacuru</t>
+          <t>São Paulo de Olivença - AM</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D223" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E223" t="n">
         <v>2</v>
       </c>
       <c r="F223" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9341,102 +9363,102 @@
         <v>1</v>
       </c>
       <c r="I223" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J223" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K223" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L223" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>Tangará da Serra</t>
+          <t>Tabatinga - AM</t>
         </is>
       </c>
       <c r="B224" t="n">
         <v>0</v>
       </c>
       <c r="C224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D224" t="n">
         <v>0</v>
       </c>
       <c r="E224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F224" t="n">
         <v>1</v>
       </c>
       <c r="G224" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H224" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I224" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K224" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L224" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>Tarauacá</t>
+          <t>Tacuru - MS</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D225" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H225" t="n">
         <v>1</v>
       </c>
       <c r="I225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K225" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>Tenente Portela</t>
+          <t>Tangará da Serra - MT</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -9452,13 +9474,13 @@
         <v>0</v>
       </c>
       <c r="F226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G226" t="n">
         <v>0</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I226" t="n">
         <v>1</v>
@@ -9467,47 +9489,47 @@
         <v>0</v>
       </c>
       <c r="K226" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L226" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>Terra Roxa</t>
+          <t>Tarauacá - AC</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D227" t="n">
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F227" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G227" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H227" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I227" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J227" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K227" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L227" t="n">
         <v>1</v>
@@ -9516,7 +9538,7 @@
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>Tonantins</t>
+          <t>Tenente Portela - RS</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -9538,56 +9560,56 @@
         <v>0</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J228" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K228" t="n">
         <v>1</v>
       </c>
       <c r="L228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>Três Palmeiras</t>
+          <t>Terra Roxa - PR</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C229" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F229" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G229" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I229" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J229" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K229" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L229" t="n">
         <v>1</v>
@@ -9596,7 +9618,7 @@
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>Tupanciretã</t>
+          <t>Tonantins - AM</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -9606,7 +9628,7 @@
         <v>0</v>
       </c>
       <c r="D230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E230" t="n">
         <v>0</v>
@@ -9618,16 +9640,16 @@
         <v>0</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I230" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J230" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L230" t="n">
         <v>0</v>
@@ -9636,51 +9658,51 @@
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>Uiramutã</t>
+          <t>Três Palmeiras - RS</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D231" t="n">
         <v>1</v>
       </c>
       <c r="E231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I231" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J231" t="n">
         <v>1</v>
       </c>
       <c r="K231" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L231" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>Vicente Dutra</t>
+          <t>Tupanciretã - RS</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -9695,10 +9717,10 @@
         <v>0</v>
       </c>
       <c r="G232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -9707,7 +9729,7 @@
         <v>0</v>
       </c>
       <c r="K232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L232" t="n">
         <v>0</v>
@@ -9716,240 +9738,320 @@
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>Vicentina</t>
+          <t>Uiramutã - RR</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
       </c>
       <c r="D233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K233" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L233" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>Vila Bela da Santíssima Trindade</t>
+          <t>Vicente Dutra - RS</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
       </c>
       <c r="D234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E234" t="n">
         <v>0</v>
       </c>
       <c r="F234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I234" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J234" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K234" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="L234" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>Vilhena</t>
+          <t>Vicentina - MS</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C235" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D235" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E235" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F235" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G235" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H235" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I235" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J235" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K235" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="L235" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>Xanxerê</t>
+          <t>Vila Bela da Santíssima Trindade - MT</t>
         </is>
       </c>
       <c r="B236" t="n">
         <v>0</v>
       </c>
       <c r="C236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F236" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I236" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J236" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K236" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="L236" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>Xapuri</t>
+          <t>Vilhena - RO</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C237" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D237" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E237" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F237" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G237" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I237" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J237" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K237" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L237" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>Óbidos</t>
+          <t>Xanxerê - SC</t>
         </is>
       </c>
       <c r="B238" t="n">
         <v>0</v>
       </c>
       <c r="C238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D238" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E238" t="n">
+        <v>1</v>
+      </c>
+      <c r="F238" t="n">
+        <v>1</v>
+      </c>
+      <c r="G238" t="n">
+        <v>1</v>
+      </c>
+      <c r="H238" t="n">
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
+      <c r="K238" t="n">
+        <v>2</v>
+      </c>
+      <c r="L238" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="inlineStr">
+        <is>
+          <t>Xapuri - AC</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>0</v>
+      </c>
+      <c r="C239" t="n">
+        <v>0</v>
+      </c>
+      <c r="D239" t="n">
+        <v>0</v>
+      </c>
+      <c r="E239" t="n">
+        <v>0</v>
+      </c>
+      <c r="F239" t="n">
+        <v>0</v>
+      </c>
+      <c r="G239" t="n">
+        <v>0</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="n">
+        <v>1</v>
+      </c>
+      <c r="K239" t="n">
+        <v>0</v>
+      </c>
+      <c r="L239" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="inlineStr">
+        <is>
+          <t>Óbidos - PA</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>0</v>
+      </c>
+      <c r="C240" t="n">
+        <v>0</v>
+      </c>
+      <c r="D240" t="n">
+        <v>1</v>
+      </c>
+      <c r="E240" t="n">
         <v>4</v>
       </c>
-      <c r="F238" t="n">
-        <v>2</v>
-      </c>
-      <c r="G238" t="n">
-        <v>2</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="n">
-        <v>1</v>
-      </c>
-      <c r="J238" t="n">
-        <v>0</v>
-      </c>
-      <c r="K238" t="n">
+      <c r="F240" t="n">
+        <v>2</v>
+      </c>
+      <c r="G240" t="n">
+        <v>2</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
+        <v>1</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" t="n">
         <v>6</v>
       </c>
-      <c r="L238" t="n">
+      <c r="L240" t="n">
         <v>0</v>
       </c>
     </row>
